--- a/biology/Zoologie/Issoria/Issoria.xlsx
+++ b/biology/Zoologie/Issoria/Issoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Issoria est un genre de lépidoptères (papillons) de la famille des Nymphalidae. Ses espèces sont présentes en Eurasie et en Afrique.
 </t>
@@ -511,18 +523,20 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Issoria a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-Son espèce type est Papilio lathonia Linnaeus, 1758[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Issoria a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+Son espèce type est Papilio lathonia Linnaeus, 1758. 
 Il est classé dans la famille des Nymphalidae, la sous-famille des Heliconiinae, la tribu des Argynnini et la sous-tribu des Argynnina.
-Il a pour synonymes juniors[2],[3],[4] : 
+Il a pour synonymes juniors : 
 Rathora Moore, 1900
 Kuekenthaliella Reuss, 1921
 Pseudorathora Reuss, 1926
 Prokuekenthaliella Reuss, 1926
 Afrossoria Simonsen, 2004
-Les espèces du genre sud-américain Yramea étaient auparavant placées dans Issoria, avant que la phylogénie ne confirme que ces deux genres sont distincts[4].
+Les espèces du genre sud-américain Yramea étaient auparavant placées dans Issoria, avant que la phylogénie ne confirme que ces deux genres sont distincts.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Liste et répartition des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Funet[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Funet :
 Issoria lathonia (Linnaeus, 1758) — le Petit nacré — Eurasie et Afrique du Nord.
 Issoria hanningtoni (Elwes, 1889) — Afrique orientale.
 Issoria smaragdifera (Butler, 1895) — Afrique orientale et australe.
